--- a/snapshot/BloodPressurePanel.xlsx
+++ b/snapshot/BloodPressurePanel.xlsx
@@ -753,7 +753,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="35094-2"/&gt;</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="85354-9"/&gt;</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -777,7 +777,7 @@
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Blood pressure panel"/&gt;</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Blood pressure panel with all children optional"/&gt;</t>
   </si>
   <si>
     <t>Coding.display</t>

--- a/snapshot/BloodPressurePanel.xlsx
+++ b/snapshot/BloodPressurePanel.xlsx
@@ -972,7 +972,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
 </t>
   </si>
   <si>

--- a/snapshot/BloodPressurePanel.xlsx
+++ b/snapshot/BloodPressurePanel.xlsx
@@ -355,7 +355,7 @@
     <t>BodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/bodyPosition]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/BodyPositionExt]]} {[]}
 </t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>measurementDevice</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/measurementDevice]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/MeasurementDeviceExt]]} {[]}
 </t>
   </si>
   <si>
@@ -389,7 +389,7 @@
     <t>cuffSize</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/bpCuffSize]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/BloodPressureCuffSizeExt]]} {[]}
 </t>
   </si>
   <si>
@@ -402,7 +402,7 @@
     <t>sleepStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/sleepStatus]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/SleepStatusExt]]} {[]}
 </t>
   </si>
   <si>
@@ -415,7 +415,7 @@
     <t>associatedPrecondition</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/associatedPrecondition]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/AssociatedPreconditionExt]]} {[]}
 </t>
   </si>
   <si>

--- a/snapshot/BloodPressurePanel.xlsx
+++ b/snapshot/BloodPressurePanel.xlsx
@@ -1139,7 +1139,7 @@
     <t>A set of codes that describe where on/in the body an observation or procedure took place</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/hspc/ValueSet/bpmeasbodylocationprecoord</t>
+    <t>http://hl7.org/fhir/hspc/ValueSet/bpMeasBodyLocationPrecoordVS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1956,7 +1956,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="81.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.84765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="28.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
